--- a/Dokumentaatio/backlog/product_backlog.xlsx
+++ b/Dokumentaatio/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\Dokumentaatio\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08B47E-3F35-48A3-BAB3-4FA23E953F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE32F4-CE96-440D-BD91-AD42EDBB8133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10971" yWindow="18514" windowWidth="21943" windowHeight="9429" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>Priority</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Käyttäjänä voin kirjautua sisään</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>DOD:</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
   </si>
   <si>
     <t>Topi</t>
-  </si>
-  <si>
-    <t>koodin laatu on varmistettu</t>
   </si>
   <si>
     <t>Yhteensä / Sprint</t>
@@ -254,6 +248,9 @@
   </si>
   <si>
     <t>testikattavuus väh. 70 %</t>
+  </si>
+  <si>
+    <t>koodin laatu on varmistettu (katselmointi)</t>
   </si>
 </sst>
 </file>
@@ -1730,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B676C-11FA-4BDC-AFE5-A5ADDA242B11}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1757,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -1775,7 +1772,7 @@
       <c r="E2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -1784,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -1795,7 +1792,7 @@
       <c r="E3" s="24"/>
       <c r="G3" s="5"/>
       <c r="H3" s="59" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -1804,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>4</v>
@@ -1815,7 +1812,7 @@
       <c r="E4" s="24"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1824,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -1836,182 +1833,182 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2110,46 +2107,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="106" t="s">
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>21</v>
-      </c>
       <c r="P1" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2177,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2192,7 +2189,7 @@
         <v>44522</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="12">
@@ -2241,7 +2238,7 @@
         <v>44522</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="12"/>
@@ -2276,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>4</v>
@@ -2291,7 +2288,7 @@
         <v>44522</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
@@ -2346,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>4</v>
@@ -2361,7 +2358,7 @@
         <v>44522</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="51">
@@ -2400,7 +2397,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="29"/>
       <c r="C9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>4</v>
@@ -2412,7 +2409,7 @@
         <v>44522</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="40">
@@ -2451,7 +2448,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" s="29"/>
       <c r="C10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>4</v>
@@ -2463,7 +2460,7 @@
         <v>44522</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="40">
@@ -2520,10 +2517,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>4</v>
@@ -2535,7 +2532,7 @@
         <v>44522</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="40">
@@ -2644,46 +2641,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="106" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="106" t="s">
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>21</v>
-      </c>
       <c r="P1" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2711,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="1" t="s">
@@ -2776,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="18" t="s">
@@ -2838,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
@@ -2900,10 +2897,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="22" t="s">
@@ -2989,8 +2986,8 @@
   </sheetPr>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3012,7 +3009,7 @@
       <c r="D1" s="72"/>
       <c r="E1" s="72"/>
       <c r="F1" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
@@ -3030,7 +3027,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="75">
         <v>44522</v>
@@ -3062,31 +3059,31 @@
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="I3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="J3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="K3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="L3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="M3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="68" t="s">
-        <v>21</v>
-      </c>
       <c r="N3" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.35">
@@ -3096,17 +3093,17 @@
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
       <c r="F4" s="63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" s="100"/>
       <c r="J4" s="100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" s="100"/>
       <c r="L4" s="101"/>
@@ -3120,7 +3117,7 @@
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
       <c r="F5" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="79">
         <v>0</v>
@@ -3149,7 +3146,7 @@
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
       <c r="F6" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="82">
         <v>0</v>
@@ -3178,7 +3175,7 @@
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
       <c r="F7" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="84">
         <v>0</v>
@@ -3205,7 +3202,7 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="84">
         <v>0</v>
@@ -3234,7 +3231,7 @@
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="84">
         <v>0</v>
@@ -3263,7 +3260,7 @@
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="84">
         <v>0</v>
@@ -3292,7 +3289,7 @@
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="95">
         <v>0</v>
@@ -3321,7 +3318,7 @@
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="83">
         <f t="shared" ref="G12:N12" si="1">SUM(G5:G11)</f>
@@ -3363,7 +3360,7 @@
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
       <c r="F13" s="63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="83">
         <f>G12</f>
@@ -3402,7 +3399,7 @@
       <c r="D14" s="69"/>
       <c r="E14" s="69"/>
       <c r="F14" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="86">
         <f t="shared" ref="G14:M14" si="3">42-G13</f>
